--- a/em_input/BAM.DatInput.Parms.xlsx
+++ b/em_input/BAM.DatInput.Parms.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bai.li\Desktop\Age_Structured_Stock_Assessment_Model_Comparison\cases\case1_1\em_input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bai.li\Desktop\mcp_results_r\cases\case2_1\em_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7030"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -437,7 +437,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -817,10 +817,10 @@
         <v>12</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E15">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>-0.5</v>
@@ -843,10 +843,10 @@
         <v>12</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>-0.5</v>
